--- a/author_comments/comments_befr_2019_12_20.xlsx
+++ b/author_comments/comments_befr_2019_12_20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngodlee/google_drive/postgrad/phd/thesis/regional_befr/author_comments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A12363D-C9F5-964D-BBFE-D3532734D98A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B013F0-1989-A74D-86E1-5383B3157747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="140">
   <si>
     <t>Commenter name</t>
   </si>
@@ -459,12 +459,15 @@
   <si>
     <t>NOTED</t>
   </si>
+  <si>
+    <t>DONE - "competition diminishes in ecosystems where environmental stress limits individual species from reaching the bounds of their fundamental niche space."</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -483,6 +486,12 @@
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -505,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -522,6 +531,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -739,13 +751,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -774,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -791,7 +803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,7 +818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,7 +848,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -851,7 +863,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
@@ -868,7 +880,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>112</v>
       </c>
@@ -885,7 +897,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
@@ -902,7 +914,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
@@ -919,7 +931,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -934,7 +946,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -949,7 +961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -964,7 +976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -979,7 +991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1024,7 +1036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1039,7 +1051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1069,7 +1081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1116,7 +1128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1148,7 +1160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1163,7 +1175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1193,7 +1205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -1208,7 +1220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1238,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1253,7 +1265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1268,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1283,7 +1295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1298,7 +1310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -1330,7 +1342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
@@ -1345,7 +1357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>103</v>
       </c>
@@ -1360,7 +1372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -1377,7 +1389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>112</v>
       </c>
@@ -1394,7 +1406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>112</v>
       </c>
@@ -1411,7 +1423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>112</v>
       </c>
@@ -1428,7 +1440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -1443,7 +1455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>103</v>
       </c>
@@ -1458,7 +1470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="182" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="182" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
@@ -1487,7 +1499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -1502,7 +1514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
@@ -1547,7 +1559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -1562,223 +1574,235 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="1">
-        <v>83</v>
-      </c>
-      <c r="D53" s="3"/>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B54" s="1">
-        <v>32</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>24</v>
+      <c r="B55" s="1">
+        <v>83</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B56" s="1">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="1">
-        <v>83</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="112" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="1">
+        <v>83</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1">
+        <v>83</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="112" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1">
         <v>128</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="4">
-        <v>208</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="84" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="1">
+        <v>36</v>
+      </c>
+      <c r="B61" s="4">
         <v>208</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="1">
-        <v>201</v>
+        <v>36</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="B63" s="1">
+        <v>208</v>
+      </c>
+      <c r="D63" s="3"/>
       <c r="E63" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B64" s="1">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="1">
-        <v>96</v>
+      <c r="B65" s="4">
+        <v>222</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="4">
-        <v>222</v>
+      <c r="B66" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>67</v>
+      <c r="B67" s="1">
+        <v>84</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
@@ -1790,7 +1814,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -1802,7 +1826,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>81</v>
       </c>
@@ -1814,7 +1838,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -1826,7 +1850,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
@@ -1838,7 +1862,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -1850,7 +1874,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="56" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>81</v>
       </c>
@@ -1862,7 +1886,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>81</v>
       </c>
@@ -1874,7 +1898,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -1886,7 +1910,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -1898,7 +1922,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>81</v>
       </c>
@@ -1910,7 +1934,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="70" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -1922,7 +1946,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="98" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="98" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -1934,7 +1958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="140" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="140" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -1946,7 +1970,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -1958,7 +1982,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>103</v>
       </c>
@@ -1970,7 +1994,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>103</v>
       </c>
@@ -1982,7 +2006,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>103</v>
       </c>
@@ -1994,7 +2018,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>103</v>
       </c>
@@ -2005,8 +2029,11 @@
       <c r="E86" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="F86" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>112</v>
       </c>
@@ -2020,7 +2047,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="1">
         <v>244</v>
       </c>
@@ -2029,7 +2056,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B89" s="1">
         <v>257</v>
       </c>
@@ -2038,7 +2065,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B90" s="1">
         <v>280</v>
       </c>
@@ -2047,7 +2074,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1">
         <v>293</v>
       </c>
@@ -2056,7 +2083,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1">
         <v>407</v>
       </c>
@@ -2065,7 +2092,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1">
         <v>418</v>
       </c>
@@ -2074,7 +2101,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1">
         <v>429</v>
       </c>
@@ -2083,7 +2110,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1">
         <v>447</v>
       </c>
@@ -2092,7 +2119,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B96" s="1">
         <v>467</v>
       </c>
@@ -2101,7 +2128,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1">
         <v>481</v>
       </c>
@@ -2110,3626 +2137,3631 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:5" ht="28" hidden="1" x14ac:dyDescent="0.15">
       <c r="D98" s="3"/>
       <c r="E98" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="D99" s="3"/>
       <c r="E99" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:5" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="D100" s="3"/>
       <c r="E100" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D101" s="3"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D102" s="3"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D103" s="3"/>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D104" s="3"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D105" s="3"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D106" s="3"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D107" s="3"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D108" s="3"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D109" s="3"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D110" s="3"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D111" s="3"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D112" s="3"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D113" s="3"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D114" s="3"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D115" s="3"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D116" s="3"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D117" s="3"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D118" s="3"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D119" s="3"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D120" s="3"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D121" s="3"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D122" s="3"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D123" s="3"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D124" s="3"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D125" s="3"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D126" s="3"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D127" s="3"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D128" s="3"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D129" s="3"/>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D130" s="3"/>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D131" s="3"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D132" s="3"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D133" s="3"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D134" s="3"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D135" s="3"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D136" s="3"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D137" s="3"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D138" s="3"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D139" s="3"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D140" s="3"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D141" s="3"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D142" s="3"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D143" s="3"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D144" s="3"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D145" s="3"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D146" s="3"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D147" s="3"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D148" s="3"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D149" s="3"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D150" s="3"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D151" s="3"/>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D152" s="3"/>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D153" s="3"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D154" s="3"/>
       <c r="E154" s="6"/>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D155" s="3"/>
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D156" s="3"/>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D157" s="3"/>
       <c r="E157" s="6"/>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="158" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D158" s="3"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D159" s="3"/>
       <c r="E159" s="6"/>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D160" s="3"/>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="161" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D161" s="3"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D162" s="3"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="163" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D163" s="3"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="164" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D164" s="3"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D165" s="3"/>
       <c r="E165" s="6"/>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D166" s="3"/>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="167" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D167" s="3"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D168" s="3"/>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D169" s="3"/>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="170" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D170" s="3"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D171" s="3"/>
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D172" s="3"/>
       <c r="E172" s="6"/>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D173" s="3"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D174" s="3"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D175" s="3"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="176" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D176" s="3"/>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D177" s="3"/>
       <c r="E177" s="6"/>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D178" s="3"/>
       <c r="E178" s="6"/>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D179" s="3"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D180" s="3"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D181" s="3"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D182" s="3"/>
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="183" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D183" s="3"/>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D184" s="3"/>
       <c r="E184" s="6"/>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D185" s="3"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D186" s="3"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D187" s="3"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D188" s="3"/>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D189" s="3"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="190" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D190" s="3"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="191" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D191" s="3"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D192" s="3"/>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D193" s="3"/>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D194" s="3"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D195" s="3"/>
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D196" s="3"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D197" s="3"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D198" s="3"/>
       <c r="E198" s="6"/>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D199" s="3"/>
       <c r="E199" s="6"/>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="200" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D200" s="3"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D201" s="3"/>
       <c r="E201" s="6"/>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D202" s="3"/>
       <c r="E202" s="6"/>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D203" s="3"/>
       <c r="E203" s="6"/>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D204" s="3"/>
       <c r="E204" s="6"/>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D205" s="3"/>
       <c r="E205" s="6"/>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D206" s="3"/>
       <c r="E206" s="6"/>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D207" s="3"/>
       <c r="E207" s="6"/>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D208" s="3"/>
       <c r="E208" s="6"/>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="209" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D209" s="3"/>
       <c r="E209" s="6"/>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="210" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D210" s="3"/>
       <c r="E210" s="6"/>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="211" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D211" s="3"/>
       <c r="E211" s="6"/>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="212" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D212" s="3"/>
       <c r="E212" s="6"/>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="213" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D213" s="3"/>
       <c r="E213" s="6"/>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="214" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D214" s="3"/>
       <c r="E214" s="6"/>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="215" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D215" s="3"/>
       <c r="E215" s="6"/>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="216" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D216" s="3"/>
       <c r="E216" s="6"/>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="217" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D217" s="3"/>
       <c r="E217" s="6"/>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="218" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D218" s="3"/>
       <c r="E218" s="6"/>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="219" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D219" s="3"/>
       <c r="E219" s="6"/>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="220" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D220" s="3"/>
       <c r="E220" s="6"/>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="221" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D221" s="3"/>
       <c r="E221" s="6"/>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="222" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D222" s="3"/>
       <c r="E222" s="6"/>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="223" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D223" s="3"/>
       <c r="E223" s="6"/>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="224" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D224" s="3"/>
       <c r="E224" s="6"/>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="225" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D225" s="3"/>
       <c r="E225" s="6"/>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="226" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D226" s="3"/>
       <c r="E226" s="6"/>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="227" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D227" s="3"/>
       <c r="E227" s="6"/>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="228" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D228" s="3"/>
       <c r="E228" s="6"/>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="229" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D229" s="3"/>
       <c r="E229" s="6"/>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="230" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D230" s="3"/>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="231" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D231" s="3"/>
       <c r="E231" s="6"/>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="232" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D232" s="3"/>
       <c r="E232" s="6"/>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="233" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D233" s="3"/>
       <c r="E233" s="6"/>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="234" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D234" s="3"/>
       <c r="E234" s="6"/>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="235" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D235" s="3"/>
       <c r="E235" s="6"/>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="236" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D236" s="3"/>
       <c r="E236" s="6"/>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="237" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D237" s="3"/>
       <c r="E237" s="6"/>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="238" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D238" s="3"/>
       <c r="E238" s="6"/>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="239" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D239" s="3"/>
       <c r="E239" s="6"/>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="240" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D240" s="3"/>
       <c r="E240" s="6"/>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="241" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D241" s="3"/>
       <c r="E241" s="6"/>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="242" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D242" s="3"/>
       <c r="E242" s="6"/>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="243" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D243" s="3"/>
       <c r="E243" s="6"/>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="244" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D244" s="3"/>
       <c r="E244" s="6"/>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="245" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D245" s="3"/>
       <c r="E245" s="6"/>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="246" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D246" s="3"/>
       <c r="E246" s="6"/>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="247" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D247" s="3"/>
       <c r="E247" s="6"/>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="248" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D248" s="3"/>
       <c r="E248" s="6"/>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="249" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D249" s="3"/>
       <c r="E249" s="6"/>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="250" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D250" s="3"/>
       <c r="E250" s="6"/>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="251" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D251" s="3"/>
       <c r="E251" s="6"/>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="252" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D252" s="3"/>
       <c r="E252" s="6"/>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="253" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D253" s="3"/>
       <c r="E253" s="6"/>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="254" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D254" s="3"/>
       <c r="E254" s="6"/>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="255" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D255" s="3"/>
       <c r="E255" s="6"/>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="256" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D256" s="3"/>
       <c r="E256" s="6"/>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="257" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D257" s="3"/>
       <c r="E257" s="6"/>
     </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="258" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D258" s="3"/>
       <c r="E258" s="6"/>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="259" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D259" s="3"/>
       <c r="E259" s="6"/>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="260" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D260" s="3"/>
       <c r="E260" s="6"/>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="261" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D261" s="3"/>
       <c r="E261" s="6"/>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="262" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D262" s="3"/>
       <c r="E262" s="6"/>
     </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="263" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D263" s="3"/>
       <c r="E263" s="6"/>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="264" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D264" s="3"/>
       <c r="E264" s="6"/>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="265" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D265" s="3"/>
       <c r="E265" s="6"/>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="266" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D266" s="3"/>
       <c r="E266" s="6"/>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="267" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D267" s="3"/>
       <c r="E267" s="6"/>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="268" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D268" s="3"/>
       <c r="E268" s="6"/>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="269" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D269" s="3"/>
       <c r="E269" s="6"/>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="270" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D270" s="3"/>
       <c r="E270" s="6"/>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="271" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D271" s="3"/>
       <c r="E271" s="6"/>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="272" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D272" s="3"/>
       <c r="E272" s="6"/>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="273" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D273" s="3"/>
       <c r="E273" s="6"/>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="274" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D274" s="3"/>
       <c r="E274" s="6"/>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="275" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D275" s="3"/>
       <c r="E275" s="6"/>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="276" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D276" s="3"/>
       <c r="E276" s="6"/>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="277" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D277" s="3"/>
       <c r="E277" s="6"/>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="278" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D278" s="3"/>
       <c r="E278" s="6"/>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="279" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D279" s="3"/>
       <c r="E279" s="6"/>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="280" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D280" s="3"/>
       <c r="E280" s="6"/>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="281" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D281" s="3"/>
       <c r="E281" s="6"/>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="282" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D282" s="3"/>
       <c r="E282" s="6"/>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="283" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D283" s="3"/>
       <c r="E283" s="6"/>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="284" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D284" s="3"/>
       <c r="E284" s="6"/>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="285" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D285" s="3"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="286" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D286" s="3"/>
       <c r="E286" s="6"/>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="287" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D287" s="3"/>
       <c r="E287" s="6"/>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="288" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D288" s="3"/>
       <c r="E288" s="6"/>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="289" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D289" s="3"/>
       <c r="E289" s="6"/>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="290" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D290" s="3"/>
       <c r="E290" s="6"/>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="291" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D291" s="3"/>
       <c r="E291" s="6"/>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="292" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D292" s="3"/>
       <c r="E292" s="6"/>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="293" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D293" s="3"/>
       <c r="E293" s="6"/>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="294" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D294" s="3"/>
       <c r="E294" s="6"/>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="295" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D295" s="3"/>
       <c r="E295" s="6"/>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="296" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D296" s="3"/>
       <c r="E296" s="6"/>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="297" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D297" s="3"/>
       <c r="E297" s="6"/>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="298" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D298" s="3"/>
       <c r="E298" s="6"/>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="299" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D299" s="3"/>
       <c r="E299" s="6"/>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="300" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D300" s="3"/>
       <c r="E300" s="6"/>
     </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="301" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D301" s="3"/>
       <c r="E301" s="6"/>
     </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="302" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D302" s="3"/>
       <c r="E302" s="6"/>
     </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="303" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D303" s="3"/>
       <c r="E303" s="6"/>
     </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="304" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D304" s="3"/>
       <c r="E304" s="6"/>
     </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="305" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D305" s="3"/>
       <c r="E305" s="6"/>
     </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="306" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D306" s="3"/>
       <c r="E306" s="6"/>
     </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="307" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D307" s="3"/>
       <c r="E307" s="6"/>
     </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="308" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D308" s="3"/>
       <c r="E308" s="6"/>
     </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="309" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D309" s="3"/>
       <c r="E309" s="6"/>
     </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="310" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D310" s="3"/>
       <c r="E310" s="6"/>
     </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="311" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D311" s="3"/>
       <c r="E311" s="6"/>
     </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="312" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D312" s="3"/>
       <c r="E312" s="6"/>
     </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="313" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D313" s="3"/>
       <c r="E313" s="6"/>
     </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="314" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D314" s="3"/>
       <c r="E314" s="6"/>
     </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="315" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D315" s="3"/>
       <c r="E315" s="6"/>
     </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="316" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D316" s="3"/>
       <c r="E316" s="6"/>
     </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="317" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D317" s="3"/>
       <c r="E317" s="6"/>
     </row>
-    <row r="318" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="318" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D318" s="3"/>
       <c r="E318" s="6"/>
     </row>
-    <row r="319" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="319" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D319" s="3"/>
       <c r="E319" s="6"/>
     </row>
-    <row r="320" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="320" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D320" s="3"/>
       <c r="E320" s="6"/>
     </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="321" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D321" s="3"/>
       <c r="E321" s="6"/>
     </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="322" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D322" s="3"/>
       <c r="E322" s="6"/>
     </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="323" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D323" s="3"/>
       <c r="E323" s="6"/>
     </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="324" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D324" s="3"/>
       <c r="E324" s="6"/>
     </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="325" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D325" s="3"/>
       <c r="E325" s="6"/>
     </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="326" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D326" s="3"/>
       <c r="E326" s="6"/>
     </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="327" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D327" s="3"/>
       <c r="E327" s="6"/>
     </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="328" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D328" s="3"/>
       <c r="E328" s="6"/>
     </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="329" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D329" s="3"/>
       <c r="E329" s="6"/>
     </row>
-    <row r="330" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="330" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D330" s="3"/>
       <c r="E330" s="6"/>
     </row>
-    <row r="331" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="331" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D331" s="3"/>
       <c r="E331" s="6"/>
     </row>
-    <row r="332" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="332" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D332" s="3"/>
       <c r="E332" s="6"/>
     </row>
-    <row r="333" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="333" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D333" s="3"/>
       <c r="E333" s="6"/>
     </row>
-    <row r="334" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="334" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D334" s="3"/>
       <c r="E334" s="6"/>
     </row>
-    <row r="335" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="335" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D335" s="3"/>
       <c r="E335" s="6"/>
     </row>
-    <row r="336" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="336" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D336" s="3"/>
       <c r="E336" s="6"/>
     </row>
-    <row r="337" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="337" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D337" s="3"/>
       <c r="E337" s="6"/>
     </row>
-    <row r="338" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="338" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D338" s="3"/>
       <c r="E338" s="6"/>
     </row>
-    <row r="339" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="339" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D339" s="3"/>
       <c r="E339" s="6"/>
     </row>
-    <row r="340" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="340" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D340" s="3"/>
       <c r="E340" s="6"/>
     </row>
-    <row r="341" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="341" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D341" s="3"/>
       <c r="E341" s="6"/>
     </row>
-    <row r="342" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="342" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D342" s="3"/>
       <c r="E342" s="6"/>
     </row>
-    <row r="343" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="343" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D343" s="3"/>
       <c r="E343" s="6"/>
     </row>
-    <row r="344" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="344" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D344" s="3"/>
       <c r="E344" s="6"/>
     </row>
-    <row r="345" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="345" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D345" s="3"/>
       <c r="E345" s="6"/>
     </row>
-    <row r="346" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="346" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D346" s="3"/>
       <c r="E346" s="6"/>
     </row>
-    <row r="347" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="347" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D347" s="3"/>
       <c r="E347" s="6"/>
     </row>
-    <row r="348" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="348" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D348" s="3"/>
       <c r="E348" s="6"/>
     </row>
-    <row r="349" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="349" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D349" s="3"/>
       <c r="E349" s="6"/>
     </row>
-    <row r="350" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="350" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D350" s="3"/>
       <c r="E350" s="6"/>
     </row>
-    <row r="351" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="351" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D351" s="3"/>
       <c r="E351" s="6"/>
     </row>
-    <row r="352" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="352" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D352" s="3"/>
       <c r="E352" s="6"/>
     </row>
-    <row r="353" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="353" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D353" s="3"/>
       <c r="E353" s="6"/>
     </row>
-    <row r="354" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="354" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D354" s="3"/>
       <c r="E354" s="6"/>
     </row>
-    <row r="355" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="355" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D355" s="3"/>
       <c r="E355" s="6"/>
     </row>
-    <row r="356" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="356" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D356" s="3"/>
       <c r="E356" s="6"/>
     </row>
-    <row r="357" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="357" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D357" s="3"/>
       <c r="E357" s="6"/>
     </row>
-    <row r="358" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="358" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D358" s="3"/>
       <c r="E358" s="6"/>
     </row>
-    <row r="359" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="359" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D359" s="3"/>
       <c r="E359" s="6"/>
     </row>
-    <row r="360" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="360" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D360" s="3"/>
       <c r="E360" s="6"/>
     </row>
-    <row r="361" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="361" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D361" s="3"/>
       <c r="E361" s="6"/>
     </row>
-    <row r="362" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="362" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D362" s="3"/>
       <c r="E362" s="6"/>
     </row>
-    <row r="363" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="363" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D363" s="3"/>
       <c r="E363" s="6"/>
     </row>
-    <row r="364" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="364" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D364" s="3"/>
       <c r="E364" s="6"/>
     </row>
-    <row r="365" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="365" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D365" s="3"/>
       <c r="E365" s="6"/>
     </row>
-    <row r="366" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="366" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D366" s="3"/>
       <c r="E366" s="6"/>
     </row>
-    <row r="367" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="367" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D367" s="3"/>
       <c r="E367" s="6"/>
     </row>
-    <row r="368" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="368" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D368" s="3"/>
       <c r="E368" s="6"/>
     </row>
-    <row r="369" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="369" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D369" s="3"/>
       <c r="E369" s="6"/>
     </row>
-    <row r="370" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="370" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D370" s="3"/>
       <c r="E370" s="6"/>
     </row>
-    <row r="371" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="371" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D371" s="3"/>
       <c r="E371" s="6"/>
     </row>
-    <row r="372" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="372" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D372" s="3"/>
       <c r="E372" s="6"/>
     </row>
-    <row r="373" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="373" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D373" s="3"/>
       <c r="E373" s="6"/>
     </row>
-    <row r="374" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="374" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D374" s="3"/>
       <c r="E374" s="6"/>
     </row>
-    <row r="375" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="375" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D375" s="3"/>
       <c r="E375" s="6"/>
     </row>
-    <row r="376" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="376" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D376" s="3"/>
       <c r="E376" s="6"/>
     </row>
-    <row r="377" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="377" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D377" s="3"/>
       <c r="E377" s="6"/>
     </row>
-    <row r="378" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="378" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D378" s="3"/>
       <c r="E378" s="6"/>
     </row>
-    <row r="379" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="379" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D379" s="3"/>
       <c r="E379" s="6"/>
     </row>
-    <row r="380" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="380" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D380" s="3"/>
       <c r="E380" s="6"/>
     </row>
-    <row r="381" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="381" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D381" s="3"/>
       <c r="E381" s="6"/>
     </row>
-    <row r="382" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="382" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D382" s="3"/>
       <c r="E382" s="6"/>
     </row>
-    <row r="383" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="383" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D383" s="3"/>
       <c r="E383" s="6"/>
     </row>
-    <row r="384" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="384" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D384" s="3"/>
       <c r="E384" s="6"/>
     </row>
-    <row r="385" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="385" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D385" s="3"/>
       <c r="E385" s="6"/>
     </row>
-    <row r="386" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="386" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D386" s="3"/>
       <c r="E386" s="6"/>
     </row>
-    <row r="387" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="387" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D387" s="3"/>
       <c r="E387" s="6"/>
     </row>
-    <row r="388" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="388" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D388" s="3"/>
       <c r="E388" s="6"/>
     </row>
-    <row r="389" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="389" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D389" s="3"/>
       <c r="E389" s="6"/>
     </row>
-    <row r="390" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="390" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D390" s="3"/>
       <c r="E390" s="6"/>
     </row>
-    <row r="391" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="391" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D391" s="3"/>
       <c r="E391" s="6"/>
     </row>
-    <row r="392" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="392" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D392" s="3"/>
       <c r="E392" s="6"/>
     </row>
-    <row r="393" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="393" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D393" s="3"/>
       <c r="E393" s="6"/>
     </row>
-    <row r="394" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="394" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D394" s="3"/>
       <c r="E394" s="6"/>
     </row>
-    <row r="395" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="395" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D395" s="3"/>
       <c r="E395" s="6"/>
     </row>
-    <row r="396" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="396" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D396" s="3"/>
       <c r="E396" s="6"/>
     </row>
-    <row r="397" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="397" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D397" s="3"/>
       <c r="E397" s="6"/>
     </row>
-    <row r="398" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="398" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D398" s="3"/>
       <c r="E398" s="6"/>
     </row>
-    <row r="399" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="399" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D399" s="3"/>
       <c r="E399" s="6"/>
     </row>
-    <row r="400" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="400" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D400" s="3"/>
       <c r="E400" s="6"/>
     </row>
-    <row r="401" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="401" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D401" s="3"/>
       <c r="E401" s="6"/>
     </row>
-    <row r="402" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="402" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D402" s="3"/>
       <c r="E402" s="6"/>
     </row>
-    <row r="403" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="403" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D403" s="3"/>
       <c r="E403" s="6"/>
     </row>
-    <row r="404" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="404" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D404" s="3"/>
       <c r="E404" s="6"/>
     </row>
-    <row r="405" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="405" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D405" s="3"/>
       <c r="E405" s="6"/>
     </row>
-    <row r="406" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="406" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D406" s="3"/>
       <c r="E406" s="6"/>
     </row>
-    <row r="407" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="407" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D407" s="3"/>
       <c r="E407" s="6"/>
     </row>
-    <row r="408" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="408" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D408" s="3"/>
       <c r="E408" s="6"/>
     </row>
-    <row r="409" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="409" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D409" s="3"/>
       <c r="E409" s="6"/>
     </row>
-    <row r="410" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="410" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D410" s="3"/>
       <c r="E410" s="6"/>
     </row>
-    <row r="411" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="411" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D411" s="3"/>
       <c r="E411" s="6"/>
     </row>
-    <row r="412" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="412" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D412" s="3"/>
       <c r="E412" s="6"/>
     </row>
-    <row r="413" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="413" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D413" s="3"/>
       <c r="E413" s="6"/>
     </row>
-    <row r="414" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="414" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D414" s="3"/>
       <c r="E414" s="6"/>
     </row>
-    <row r="415" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="415" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D415" s="3"/>
       <c r="E415" s="6"/>
     </row>
-    <row r="416" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="416" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D416" s="3"/>
       <c r="E416" s="6"/>
     </row>
-    <row r="417" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="417" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D417" s="3"/>
       <c r="E417" s="6"/>
     </row>
-    <row r="418" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="418" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D418" s="3"/>
       <c r="E418" s="6"/>
     </row>
-    <row r="419" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="419" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D419" s="3"/>
       <c r="E419" s="6"/>
     </row>
-    <row r="420" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="420" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D420" s="3"/>
       <c r="E420" s="6"/>
     </row>
-    <row r="421" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="421" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D421" s="3"/>
       <c r="E421" s="6"/>
     </row>
-    <row r="422" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="422" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D422" s="3"/>
       <c r="E422" s="6"/>
     </row>
-    <row r="423" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="423" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D423" s="3"/>
       <c r="E423" s="6"/>
     </row>
-    <row r="424" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="424" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D424" s="3"/>
       <c r="E424" s="6"/>
     </row>
-    <row r="425" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="425" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D425" s="3"/>
       <c r="E425" s="6"/>
     </row>
-    <row r="426" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="426" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D426" s="3"/>
       <c r="E426" s="6"/>
     </row>
-    <row r="427" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="427" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D427" s="3"/>
       <c r="E427" s="6"/>
     </row>
-    <row r="428" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="428" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D428" s="3"/>
       <c r="E428" s="6"/>
     </row>
-    <row r="429" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="429" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D429" s="3"/>
       <c r="E429" s="6"/>
     </row>
-    <row r="430" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="430" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D430" s="3"/>
       <c r="E430" s="6"/>
     </row>
-    <row r="431" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="431" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D431" s="3"/>
       <c r="E431" s="6"/>
     </row>
-    <row r="432" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="432" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D432" s="3"/>
       <c r="E432" s="6"/>
     </row>
-    <row r="433" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="433" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D433" s="3"/>
       <c r="E433" s="6"/>
     </row>
-    <row r="434" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="434" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D434" s="3"/>
       <c r="E434" s="6"/>
     </row>
-    <row r="435" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="435" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D435" s="3"/>
       <c r="E435" s="6"/>
     </row>
-    <row r="436" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="436" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D436" s="3"/>
       <c r="E436" s="6"/>
     </row>
-    <row r="437" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="437" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D437" s="3"/>
       <c r="E437" s="6"/>
     </row>
-    <row r="438" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="438" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D438" s="3"/>
       <c r="E438" s="6"/>
     </row>
-    <row r="439" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="439" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D439" s="3"/>
       <c r="E439" s="6"/>
     </row>
-    <row r="440" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="440" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D440" s="3"/>
       <c r="E440" s="6"/>
     </row>
-    <row r="441" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="441" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D441" s="3"/>
       <c r="E441" s="6"/>
     </row>
-    <row r="442" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="442" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D442" s="3"/>
       <c r="E442" s="6"/>
     </row>
-    <row r="443" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="443" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D443" s="3"/>
       <c r="E443" s="6"/>
     </row>
-    <row r="444" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="444" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D444" s="3"/>
       <c r="E444" s="6"/>
     </row>
-    <row r="445" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="445" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D445" s="3"/>
       <c r="E445" s="6"/>
     </row>
-    <row r="446" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="446" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D446" s="3"/>
       <c r="E446" s="6"/>
     </row>
-    <row r="447" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="447" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D447" s="3"/>
       <c r="E447" s="6"/>
     </row>
-    <row r="448" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="448" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D448" s="3"/>
       <c r="E448" s="6"/>
     </row>
-    <row r="449" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="449" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D449" s="3"/>
       <c r="E449" s="6"/>
     </row>
-    <row r="450" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="450" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D450" s="3"/>
       <c r="E450" s="6"/>
     </row>
-    <row r="451" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="451" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D451" s="3"/>
       <c r="E451" s="6"/>
     </row>
-    <row r="452" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="452" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D452" s="3"/>
       <c r="E452" s="6"/>
     </row>
-    <row r="453" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="453" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D453" s="3"/>
       <c r="E453" s="6"/>
     </row>
-    <row r="454" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="454" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D454" s="3"/>
       <c r="E454" s="6"/>
     </row>
-    <row r="455" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="455" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D455" s="3"/>
       <c r="E455" s="6"/>
     </row>
-    <row r="456" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="456" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D456" s="3"/>
       <c r="E456" s="6"/>
     </row>
-    <row r="457" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="457" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D457" s="3"/>
       <c r="E457" s="6"/>
     </row>
-    <row r="458" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="458" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D458" s="3"/>
       <c r="E458" s="6"/>
     </row>
-    <row r="459" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="459" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D459" s="3"/>
       <c r="E459" s="6"/>
     </row>
-    <row r="460" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="460" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D460" s="3"/>
       <c r="E460" s="6"/>
     </row>
-    <row r="461" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="461" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D461" s="3"/>
       <c r="E461" s="6"/>
     </row>
-    <row r="462" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="462" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D462" s="3"/>
       <c r="E462" s="6"/>
     </row>
-    <row r="463" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="463" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D463" s="3"/>
       <c r="E463" s="6"/>
     </row>
-    <row r="464" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="464" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D464" s="3"/>
       <c r="E464" s="6"/>
     </row>
-    <row r="465" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="465" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D465" s="3"/>
       <c r="E465" s="6"/>
     </row>
-    <row r="466" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="466" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D466" s="3"/>
       <c r="E466" s="6"/>
     </row>
-    <row r="467" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="467" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D467" s="3"/>
       <c r="E467" s="6"/>
     </row>
-    <row r="468" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="468" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D468" s="3"/>
       <c r="E468" s="6"/>
     </row>
-    <row r="469" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="469" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D469" s="3"/>
       <c r="E469" s="6"/>
     </row>
-    <row r="470" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="470" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D470" s="3"/>
       <c r="E470" s="6"/>
     </row>
-    <row r="471" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="471" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D471" s="3"/>
       <c r="E471" s="6"/>
     </row>
-    <row r="472" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="472" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D472" s="3"/>
       <c r="E472" s="6"/>
     </row>
-    <row r="473" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="473" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D473" s="3"/>
       <c r="E473" s="6"/>
     </row>
-    <row r="474" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="474" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D474" s="3"/>
       <c r="E474" s="6"/>
     </row>
-    <row r="475" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="475" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D475" s="3"/>
       <c r="E475" s="6"/>
     </row>
-    <row r="476" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="476" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D476" s="3"/>
       <c r="E476" s="6"/>
     </row>
-    <row r="477" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="477" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D477" s="3"/>
       <c r="E477" s="6"/>
     </row>
-    <row r="478" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="478" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D478" s="3"/>
       <c r="E478" s="6"/>
     </row>
-    <row r="479" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="479" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D479" s="3"/>
       <c r="E479" s="6"/>
     </row>
-    <row r="480" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="480" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D480" s="3"/>
       <c r="E480" s="6"/>
     </row>
-    <row r="481" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="481" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D481" s="3"/>
       <c r="E481" s="6"/>
     </row>
-    <row r="482" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="482" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D482" s="3"/>
       <c r="E482" s="6"/>
     </row>
-    <row r="483" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="483" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D483" s="3"/>
       <c r="E483" s="6"/>
     </row>
-    <row r="484" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="484" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D484" s="3"/>
       <c r="E484" s="6"/>
     </row>
-    <row r="485" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="485" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D485" s="3"/>
       <c r="E485" s="6"/>
     </row>
-    <row r="486" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="486" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D486" s="3"/>
       <c r="E486" s="6"/>
     </row>
-    <row r="487" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="487" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D487" s="3"/>
       <c r="E487" s="6"/>
     </row>
-    <row r="488" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="488" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D488" s="3"/>
       <c r="E488" s="6"/>
     </row>
-    <row r="489" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="489" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D489" s="3"/>
       <c r="E489" s="6"/>
     </row>
-    <row r="490" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="490" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D490" s="3"/>
       <c r="E490" s="6"/>
     </row>
-    <row r="491" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="491" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D491" s="3"/>
       <c r="E491" s="6"/>
     </row>
-    <row r="492" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="492" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D492" s="3"/>
       <c r="E492" s="6"/>
     </row>
-    <row r="493" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="493" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D493" s="3"/>
       <c r="E493" s="6"/>
     </row>
-    <row r="494" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="494" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D494" s="3"/>
       <c r="E494" s="6"/>
     </row>
-    <row r="495" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="495" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D495" s="3"/>
       <c r="E495" s="6"/>
     </row>
-    <row r="496" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="496" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D496" s="3"/>
       <c r="E496" s="6"/>
     </row>
-    <row r="497" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="497" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D497" s="3"/>
       <c r="E497" s="6"/>
     </row>
-    <row r="498" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="498" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D498" s="3"/>
       <c r="E498" s="6"/>
     </row>
-    <row r="499" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="499" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D499" s="3"/>
       <c r="E499" s="6"/>
     </row>
-    <row r="500" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="500" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D500" s="3"/>
       <c r="E500" s="6"/>
     </row>
-    <row r="501" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="501" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D501" s="3"/>
       <c r="E501" s="6"/>
     </row>
-    <row r="502" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="502" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D502" s="3"/>
       <c r="E502" s="6"/>
     </row>
-    <row r="503" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="503" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D503" s="3"/>
       <c r="E503" s="6"/>
     </row>
-    <row r="504" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="504" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D504" s="3"/>
       <c r="E504" s="6"/>
     </row>
-    <row r="505" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="505" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D505" s="3"/>
       <c r="E505" s="6"/>
     </row>
-    <row r="506" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="506" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D506" s="3"/>
       <c r="E506" s="6"/>
     </row>
-    <row r="507" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="507" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D507" s="3"/>
       <c r="E507" s="6"/>
     </row>
-    <row r="508" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="508" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D508" s="3"/>
       <c r="E508" s="6"/>
     </row>
-    <row r="509" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="509" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D509" s="3"/>
       <c r="E509" s="6"/>
     </row>
-    <row r="510" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="510" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D510" s="3"/>
       <c r="E510" s="6"/>
     </row>
-    <row r="511" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="511" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D511" s="3"/>
       <c r="E511" s="6"/>
     </row>
-    <row r="512" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="512" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D512" s="3"/>
       <c r="E512" s="6"/>
     </row>
-    <row r="513" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="513" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D513" s="3"/>
       <c r="E513" s="6"/>
     </row>
-    <row r="514" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="514" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D514" s="3"/>
       <c r="E514" s="6"/>
     </row>
-    <row r="515" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="515" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D515" s="3"/>
       <c r="E515" s="6"/>
     </row>
-    <row r="516" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="516" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D516" s="3"/>
       <c r="E516" s="6"/>
     </row>
-    <row r="517" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="517" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D517" s="3"/>
       <c r="E517" s="6"/>
     </row>
-    <row r="518" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="518" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D518" s="3"/>
       <c r="E518" s="6"/>
     </row>
-    <row r="519" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="519" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D519" s="3"/>
       <c r="E519" s="6"/>
     </row>
-    <row r="520" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="520" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D520" s="3"/>
       <c r="E520" s="6"/>
     </row>
-    <row r="521" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="521" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D521" s="3"/>
       <c r="E521" s="6"/>
     </row>
-    <row r="522" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="522" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D522" s="3"/>
       <c r="E522" s="6"/>
     </row>
-    <row r="523" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="523" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D523" s="3"/>
       <c r="E523" s="6"/>
     </row>
-    <row r="524" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="524" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D524" s="3"/>
       <c r="E524" s="6"/>
     </row>
-    <row r="525" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="525" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D525" s="3"/>
       <c r="E525" s="6"/>
     </row>
-    <row r="526" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="526" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D526" s="3"/>
       <c r="E526" s="6"/>
     </row>
-    <row r="527" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="527" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D527" s="3"/>
       <c r="E527" s="6"/>
     </row>
-    <row r="528" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="528" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D528" s="3"/>
       <c r="E528" s="6"/>
     </row>
-    <row r="529" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="529" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D529" s="3"/>
       <c r="E529" s="6"/>
     </row>
-    <row r="530" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="530" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D530" s="3"/>
       <c r="E530" s="6"/>
     </row>
-    <row r="531" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="531" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D531" s="3"/>
       <c r="E531" s="6"/>
     </row>
-    <row r="532" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="532" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D532" s="3"/>
       <c r="E532" s="6"/>
     </row>
-    <row r="533" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="533" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D533" s="3"/>
       <c r="E533" s="6"/>
     </row>
-    <row r="534" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="534" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D534" s="3"/>
       <c r="E534" s="6"/>
     </row>
-    <row r="535" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="535" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D535" s="3"/>
       <c r="E535" s="6"/>
     </row>
-    <row r="536" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="536" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D536" s="3"/>
       <c r="E536" s="6"/>
     </row>
-    <row r="537" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="537" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D537" s="3"/>
       <c r="E537" s="6"/>
     </row>
-    <row r="538" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="538" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D538" s="3"/>
       <c r="E538" s="6"/>
     </row>
-    <row r="539" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="539" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D539" s="3"/>
       <c r="E539" s="6"/>
     </row>
-    <row r="540" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="540" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D540" s="3"/>
       <c r="E540" s="6"/>
     </row>
-    <row r="541" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="541" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D541" s="3"/>
       <c r="E541" s="6"/>
     </row>
-    <row r="542" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="542" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D542" s="3"/>
       <c r="E542" s="6"/>
     </row>
-    <row r="543" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="543" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D543" s="3"/>
       <c r="E543" s="6"/>
     </row>
-    <row r="544" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="544" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D544" s="3"/>
       <c r="E544" s="6"/>
     </row>
-    <row r="545" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="545" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D545" s="3"/>
       <c r="E545" s="6"/>
     </row>
-    <row r="546" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="546" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D546" s="3"/>
       <c r="E546" s="6"/>
     </row>
-    <row r="547" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="547" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D547" s="3"/>
       <c r="E547" s="6"/>
     </row>
-    <row r="548" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="548" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D548" s="3"/>
       <c r="E548" s="6"/>
     </row>
-    <row r="549" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="549" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D549" s="3"/>
       <c r="E549" s="6"/>
     </row>
-    <row r="550" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="550" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D550" s="3"/>
       <c r="E550" s="6"/>
     </row>
-    <row r="551" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="551" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D551" s="3"/>
       <c r="E551" s="6"/>
     </row>
-    <row r="552" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="552" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D552" s="3"/>
       <c r="E552" s="6"/>
     </row>
-    <row r="553" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="553" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D553" s="3"/>
       <c r="E553" s="6"/>
     </row>
-    <row r="554" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="554" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D554" s="3"/>
       <c r="E554" s="6"/>
     </row>
-    <row r="555" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="555" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D555" s="3"/>
       <c r="E555" s="6"/>
     </row>
-    <row r="556" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="556" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D556" s="3"/>
       <c r="E556" s="6"/>
     </row>
-    <row r="557" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="557" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D557" s="3"/>
       <c r="E557" s="6"/>
     </row>
-    <row r="558" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="558" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D558" s="3"/>
       <c r="E558" s="6"/>
     </row>
-    <row r="559" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="559" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D559" s="3"/>
       <c r="E559" s="6"/>
     </row>
-    <row r="560" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="560" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D560" s="3"/>
       <c r="E560" s="6"/>
     </row>
-    <row r="561" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="561" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D561" s="3"/>
       <c r="E561" s="6"/>
     </row>
-    <row r="562" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="562" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D562" s="3"/>
       <c r="E562" s="6"/>
     </row>
-    <row r="563" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="563" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D563" s="3"/>
       <c r="E563" s="6"/>
     </row>
-    <row r="564" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="564" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D564" s="3"/>
       <c r="E564" s="6"/>
     </row>
-    <row r="565" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="565" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D565" s="3"/>
       <c r="E565" s="6"/>
     </row>
-    <row r="566" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="566" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D566" s="3"/>
       <c r="E566" s="6"/>
     </row>
-    <row r="567" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="567" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D567" s="3"/>
       <c r="E567" s="6"/>
     </row>
-    <row r="568" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="568" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D568" s="3"/>
       <c r="E568" s="6"/>
     </row>
-    <row r="569" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="569" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D569" s="3"/>
       <c r="E569" s="6"/>
     </row>
-    <row r="570" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="570" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D570" s="3"/>
       <c r="E570" s="6"/>
     </row>
-    <row r="571" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="571" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D571" s="3"/>
       <c r="E571" s="6"/>
     </row>
-    <row r="572" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="572" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D572" s="3"/>
       <c r="E572" s="6"/>
     </row>
-    <row r="573" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="573" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D573" s="3"/>
       <c r="E573" s="6"/>
     </row>
-    <row r="574" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="574" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D574" s="3"/>
       <c r="E574" s="6"/>
     </row>
-    <row r="575" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="575" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D575" s="3"/>
       <c r="E575" s="6"/>
     </row>
-    <row r="576" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="576" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D576" s="3"/>
       <c r="E576" s="6"/>
     </row>
-    <row r="577" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="577" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D577" s="3"/>
       <c r="E577" s="6"/>
     </row>
-    <row r="578" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="578" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D578" s="3"/>
       <c r="E578" s="6"/>
     </row>
-    <row r="579" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="579" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D579" s="3"/>
       <c r="E579" s="6"/>
     </row>
-    <row r="580" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="580" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D580" s="3"/>
       <c r="E580" s="6"/>
     </row>
-    <row r="581" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="581" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D581" s="3"/>
       <c r="E581" s="6"/>
     </row>
-    <row r="582" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="582" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D582" s="3"/>
       <c r="E582" s="6"/>
     </row>
-    <row r="583" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="583" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D583" s="3"/>
       <c r="E583" s="6"/>
     </row>
-    <row r="584" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="584" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D584" s="3"/>
       <c r="E584" s="6"/>
     </row>
-    <row r="585" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="585" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D585" s="3"/>
       <c r="E585" s="6"/>
     </row>
-    <row r="586" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="586" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D586" s="3"/>
       <c r="E586" s="6"/>
     </row>
-    <row r="587" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="587" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D587" s="3"/>
       <c r="E587" s="6"/>
     </row>
-    <row r="588" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="588" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D588" s="3"/>
       <c r="E588" s="6"/>
     </row>
-    <row r="589" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="589" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D589" s="3"/>
       <c r="E589" s="6"/>
     </row>
-    <row r="590" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="590" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D590" s="3"/>
       <c r="E590" s="6"/>
     </row>
-    <row r="591" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="591" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D591" s="3"/>
       <c r="E591" s="6"/>
     </row>
-    <row r="592" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="592" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D592" s="3"/>
       <c r="E592" s="6"/>
     </row>
-    <row r="593" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="593" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D593" s="3"/>
       <c r="E593" s="6"/>
     </row>
-    <row r="594" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="594" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D594" s="3"/>
       <c r="E594" s="6"/>
     </row>
-    <row r="595" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="595" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D595" s="3"/>
       <c r="E595" s="6"/>
     </row>
-    <row r="596" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="596" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D596" s="3"/>
       <c r="E596" s="6"/>
     </row>
-    <row r="597" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="597" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D597" s="3"/>
       <c r="E597" s="6"/>
     </row>
-    <row r="598" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="598" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D598" s="3"/>
       <c r="E598" s="6"/>
     </row>
-    <row r="599" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="599" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D599" s="3"/>
       <c r="E599" s="6"/>
     </row>
-    <row r="600" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="600" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D600" s="3"/>
       <c r="E600" s="6"/>
     </row>
-    <row r="601" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="601" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D601" s="3"/>
       <c r="E601" s="6"/>
     </row>
-    <row r="602" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="602" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D602" s="3"/>
       <c r="E602" s="6"/>
     </row>
-    <row r="603" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="603" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D603" s="3"/>
       <c r="E603" s="6"/>
     </row>
-    <row r="604" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="604" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D604" s="3"/>
       <c r="E604" s="6"/>
     </row>
-    <row r="605" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="605" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D605" s="3"/>
       <c r="E605" s="6"/>
     </row>
-    <row r="606" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="606" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D606" s="3"/>
       <c r="E606" s="6"/>
     </row>
-    <row r="607" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="607" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D607" s="3"/>
       <c r="E607" s="6"/>
     </row>
-    <row r="608" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="608" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D608" s="3"/>
       <c r="E608" s="6"/>
     </row>
-    <row r="609" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="609" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D609" s="3"/>
       <c r="E609" s="6"/>
     </row>
-    <row r="610" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="610" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D610" s="3"/>
       <c r="E610" s="6"/>
     </row>
-    <row r="611" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="611" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D611" s="3"/>
       <c r="E611" s="6"/>
     </row>
-    <row r="612" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="612" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D612" s="3"/>
       <c r="E612" s="6"/>
     </row>
-    <row r="613" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="613" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D613" s="3"/>
       <c r="E613" s="6"/>
     </row>
-    <row r="614" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="614" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D614" s="3"/>
       <c r="E614" s="6"/>
     </row>
-    <row r="615" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="615" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D615" s="3"/>
       <c r="E615" s="6"/>
     </row>
-    <row r="616" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="616" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D616" s="3"/>
       <c r="E616" s="6"/>
     </row>
-    <row r="617" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="617" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D617" s="3"/>
       <c r="E617" s="6"/>
     </row>
-    <row r="618" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="618" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D618" s="3"/>
       <c r="E618" s="6"/>
     </row>
-    <row r="619" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="619" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D619" s="3"/>
       <c r="E619" s="6"/>
     </row>
-    <row r="620" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="620" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D620" s="3"/>
       <c r="E620" s="6"/>
     </row>
-    <row r="621" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="621" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D621" s="3"/>
       <c r="E621" s="6"/>
     </row>
-    <row r="622" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="622" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D622" s="3"/>
       <c r="E622" s="6"/>
     </row>
-    <row r="623" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="623" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D623" s="3"/>
       <c r="E623" s="6"/>
     </row>
-    <row r="624" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="624" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D624" s="3"/>
       <c r="E624" s="6"/>
     </row>
-    <row r="625" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="625" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D625" s="3"/>
       <c r="E625" s="6"/>
     </row>
-    <row r="626" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="626" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D626" s="3"/>
       <c r="E626" s="6"/>
     </row>
-    <row r="627" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="627" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D627" s="3"/>
       <c r="E627" s="6"/>
     </row>
-    <row r="628" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="628" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D628" s="3"/>
       <c r="E628" s="6"/>
     </row>
-    <row r="629" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="629" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D629" s="3"/>
       <c r="E629" s="6"/>
     </row>
-    <row r="630" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="630" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D630" s="3"/>
       <c r="E630" s="6"/>
     </row>
-    <row r="631" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="631" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D631" s="3"/>
       <c r="E631" s="6"/>
     </row>
-    <row r="632" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="632" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D632" s="3"/>
       <c r="E632" s="6"/>
     </row>
-    <row r="633" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="633" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D633" s="3"/>
       <c r="E633" s="6"/>
     </row>
-    <row r="634" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="634" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D634" s="3"/>
       <c r="E634" s="6"/>
     </row>
-    <row r="635" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="635" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D635" s="3"/>
       <c r="E635" s="6"/>
     </row>
-    <row r="636" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="636" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D636" s="3"/>
       <c r="E636" s="6"/>
     </row>
-    <row r="637" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="637" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D637" s="3"/>
       <c r="E637" s="6"/>
     </row>
-    <row r="638" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="638" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D638" s="3"/>
       <c r="E638" s="6"/>
     </row>
-    <row r="639" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="639" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D639" s="3"/>
       <c r="E639" s="6"/>
     </row>
-    <row r="640" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="640" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D640" s="3"/>
       <c r="E640" s="6"/>
     </row>
-    <row r="641" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="641" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D641" s="3"/>
       <c r="E641" s="6"/>
     </row>
-    <row r="642" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="642" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D642" s="3"/>
       <c r="E642" s="6"/>
     </row>
-    <row r="643" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="643" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D643" s="3"/>
       <c r="E643" s="6"/>
     </row>
-    <row r="644" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="644" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D644" s="3"/>
       <c r="E644" s="6"/>
     </row>
-    <row r="645" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="645" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D645" s="3"/>
       <c r="E645" s="6"/>
     </row>
-    <row r="646" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="646" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D646" s="3"/>
       <c r="E646" s="6"/>
     </row>
-    <row r="647" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="647" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D647" s="3"/>
       <c r="E647" s="6"/>
     </row>
-    <row r="648" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="648" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D648" s="3"/>
       <c r="E648" s="6"/>
     </row>
-    <row r="649" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="649" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D649" s="3"/>
       <c r="E649" s="6"/>
     </row>
-    <row r="650" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="650" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D650" s="3"/>
       <c r="E650" s="6"/>
     </row>
-    <row r="651" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="651" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D651" s="3"/>
       <c r="E651" s="6"/>
     </row>
-    <row r="652" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="652" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D652" s="3"/>
       <c r="E652" s="6"/>
     </row>
-    <row r="653" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="653" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D653" s="3"/>
       <c r="E653" s="6"/>
     </row>
-    <row r="654" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="654" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D654" s="3"/>
       <c r="E654" s="6"/>
     </row>
-    <row r="655" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="655" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D655" s="3"/>
       <c r="E655" s="6"/>
     </row>
-    <row r="656" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="656" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D656" s="3"/>
       <c r="E656" s="6"/>
     </row>
-    <row r="657" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="657" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D657" s="3"/>
       <c r="E657" s="6"/>
     </row>
-    <row r="658" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="658" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D658" s="3"/>
       <c r="E658" s="6"/>
     </row>
-    <row r="659" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="659" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D659" s="3"/>
       <c r="E659" s="6"/>
     </row>
-    <row r="660" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="660" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D660" s="3"/>
       <c r="E660" s="6"/>
     </row>
-    <row r="661" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="661" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D661" s="3"/>
       <c r="E661" s="6"/>
     </row>
-    <row r="662" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="662" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D662" s="3"/>
       <c r="E662" s="6"/>
     </row>
-    <row r="663" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="663" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D663" s="3"/>
       <c r="E663" s="6"/>
     </row>
-    <row r="664" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="664" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D664" s="3"/>
       <c r="E664" s="6"/>
     </row>
-    <row r="665" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="665" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D665" s="3"/>
       <c r="E665" s="6"/>
     </row>
-    <row r="666" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="666" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D666" s="3"/>
       <c r="E666" s="6"/>
     </row>
-    <row r="667" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="667" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D667" s="3"/>
       <c r="E667" s="6"/>
     </row>
-    <row r="668" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="668" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D668" s="3"/>
       <c r="E668" s="6"/>
     </row>
-    <row r="669" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="669" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D669" s="3"/>
       <c r="E669" s="6"/>
     </row>
-    <row r="670" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="670" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D670" s="3"/>
       <c r="E670" s="6"/>
     </row>
-    <row r="671" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="671" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D671" s="3"/>
       <c r="E671" s="6"/>
     </row>
-    <row r="672" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="672" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D672" s="3"/>
       <c r="E672" s="6"/>
     </row>
-    <row r="673" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="673" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D673" s="3"/>
       <c r="E673" s="6"/>
     </row>
-    <row r="674" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="674" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D674" s="3"/>
       <c r="E674" s="6"/>
     </row>
-    <row r="675" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="675" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D675" s="3"/>
       <c r="E675" s="6"/>
     </row>
-    <row r="676" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="676" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D676" s="3"/>
       <c r="E676" s="6"/>
     </row>
-    <row r="677" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="677" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D677" s="3"/>
       <c r="E677" s="6"/>
     </row>
-    <row r="678" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="678" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D678" s="3"/>
       <c r="E678" s="6"/>
     </row>
-    <row r="679" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="679" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D679" s="3"/>
       <c r="E679" s="6"/>
     </row>
-    <row r="680" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="680" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D680" s="3"/>
       <c r="E680" s="6"/>
     </row>
-    <row r="681" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="681" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D681" s="3"/>
       <c r="E681" s="6"/>
     </row>
-    <row r="682" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="682" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D682" s="3"/>
       <c r="E682" s="6"/>
     </row>
-    <row r="683" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="683" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D683" s="3"/>
       <c r="E683" s="6"/>
     </row>
-    <row r="684" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="684" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D684" s="3"/>
       <c r="E684" s="6"/>
     </row>
-    <row r="685" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="685" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D685" s="3"/>
       <c r="E685" s="6"/>
     </row>
-    <row r="686" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="686" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D686" s="3"/>
       <c r="E686" s="6"/>
     </row>
-    <row r="687" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="687" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D687" s="3"/>
       <c r="E687" s="6"/>
     </row>
-    <row r="688" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="688" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D688" s="3"/>
       <c r="E688" s="6"/>
     </row>
-    <row r="689" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="689" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D689" s="3"/>
       <c r="E689" s="6"/>
     </row>
-    <row r="690" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="690" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D690" s="3"/>
       <c r="E690" s="6"/>
     </row>
-    <row r="691" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="691" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D691" s="3"/>
       <c r="E691" s="6"/>
     </row>
-    <row r="692" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="692" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D692" s="3"/>
       <c r="E692" s="6"/>
     </row>
-    <row r="693" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="693" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D693" s="3"/>
       <c r="E693" s="6"/>
     </row>
-    <row r="694" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="694" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D694" s="3"/>
       <c r="E694" s="6"/>
     </row>
-    <row r="695" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="695" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D695" s="3"/>
       <c r="E695" s="6"/>
     </row>
-    <row r="696" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="696" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D696" s="3"/>
       <c r="E696" s="6"/>
     </row>
-    <row r="697" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="697" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D697" s="3"/>
       <c r="E697" s="6"/>
     </row>
-    <row r="698" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="698" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D698" s="3"/>
       <c r="E698" s="6"/>
     </row>
-    <row r="699" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="699" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D699" s="3"/>
       <c r="E699" s="6"/>
     </row>
-    <row r="700" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="700" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D700" s="3"/>
       <c r="E700" s="6"/>
     </row>
-    <row r="701" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="701" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D701" s="3"/>
       <c r="E701" s="6"/>
     </row>
-    <row r="702" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="702" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D702" s="3"/>
       <c r="E702" s="6"/>
     </row>
-    <row r="703" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="703" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D703" s="3"/>
       <c r="E703" s="6"/>
     </row>
-    <row r="704" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="704" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D704" s="3"/>
       <c r="E704" s="6"/>
     </row>
-    <row r="705" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="705" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D705" s="3"/>
       <c r="E705" s="6"/>
     </row>
-    <row r="706" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="706" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D706" s="3"/>
       <c r="E706" s="6"/>
     </row>
-    <row r="707" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="707" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D707" s="3"/>
       <c r="E707" s="6"/>
     </row>
-    <row r="708" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="708" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D708" s="3"/>
       <c r="E708" s="6"/>
     </row>
-    <row r="709" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="709" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D709" s="3"/>
       <c r="E709" s="6"/>
     </row>
-    <row r="710" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="710" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D710" s="3"/>
       <c r="E710" s="6"/>
     </row>
-    <row r="711" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="711" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D711" s="3"/>
       <c r="E711" s="6"/>
     </row>
-    <row r="712" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="712" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D712" s="3"/>
       <c r="E712" s="6"/>
     </row>
-    <row r="713" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="713" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D713" s="3"/>
       <c r="E713" s="6"/>
     </row>
-    <row r="714" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="714" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D714" s="3"/>
       <c r="E714" s="6"/>
     </row>
-    <row r="715" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="715" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D715" s="3"/>
       <c r="E715" s="6"/>
     </row>
-    <row r="716" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="716" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D716" s="3"/>
       <c r="E716" s="6"/>
     </row>
-    <row r="717" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="717" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D717" s="3"/>
       <c r="E717" s="6"/>
     </row>
-    <row r="718" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="718" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D718" s="3"/>
       <c r="E718" s="6"/>
     </row>
-    <row r="719" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="719" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D719" s="3"/>
       <c r="E719" s="6"/>
     </row>
-    <row r="720" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="720" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D720" s="3"/>
       <c r="E720" s="6"/>
     </row>
-    <row r="721" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="721" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D721" s="3"/>
       <c r="E721" s="6"/>
     </row>
-    <row r="722" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="722" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D722" s="3"/>
       <c r="E722" s="6"/>
     </row>
-    <row r="723" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="723" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D723" s="3"/>
       <c r="E723" s="6"/>
     </row>
-    <row r="724" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="724" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D724" s="3"/>
       <c r="E724" s="6"/>
     </row>
-    <row r="725" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="725" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D725" s="3"/>
       <c r="E725" s="6"/>
     </row>
-    <row r="726" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="726" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D726" s="3"/>
       <c r="E726" s="6"/>
     </row>
-    <row r="727" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="727" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D727" s="3"/>
       <c r="E727" s="6"/>
     </row>
-    <row r="728" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="728" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D728" s="3"/>
       <c r="E728" s="6"/>
     </row>
-    <row r="729" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="729" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D729" s="3"/>
       <c r="E729" s="6"/>
     </row>
-    <row r="730" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="730" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D730" s="3"/>
       <c r="E730" s="6"/>
     </row>
-    <row r="731" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="731" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D731" s="3"/>
       <c r="E731" s="6"/>
     </row>
-    <row r="732" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="732" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D732" s="3"/>
       <c r="E732" s="6"/>
     </row>
-    <row r="733" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="733" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D733" s="3"/>
       <c r="E733" s="6"/>
     </row>
-    <row r="734" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="734" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D734" s="3"/>
       <c r="E734" s="6"/>
     </row>
-    <row r="735" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="735" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D735" s="3"/>
       <c r="E735" s="6"/>
     </row>
-    <row r="736" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="736" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D736" s="3"/>
       <c r="E736" s="6"/>
     </row>
-    <row r="737" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="737" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D737" s="3"/>
       <c r="E737" s="6"/>
     </row>
-    <row r="738" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="738" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D738" s="3"/>
       <c r="E738" s="6"/>
     </row>
-    <row r="739" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="739" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D739" s="3"/>
       <c r="E739" s="6"/>
     </row>
-    <row r="740" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="740" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D740" s="3"/>
       <c r="E740" s="6"/>
     </row>
-    <row r="741" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="741" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D741" s="3"/>
       <c r="E741" s="6"/>
     </row>
-    <row r="742" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="742" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D742" s="3"/>
       <c r="E742" s="6"/>
     </row>
-    <row r="743" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="743" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D743" s="3"/>
       <c r="E743" s="6"/>
     </row>
-    <row r="744" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="744" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D744" s="3"/>
       <c r="E744" s="6"/>
     </row>
-    <row r="745" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="745" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D745" s="3"/>
       <c r="E745" s="6"/>
     </row>
-    <row r="746" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="746" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D746" s="3"/>
       <c r="E746" s="6"/>
     </row>
-    <row r="747" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="747" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D747" s="3"/>
       <c r="E747" s="6"/>
     </row>
-    <row r="748" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="748" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D748" s="3"/>
       <c r="E748" s="6"/>
     </row>
-    <row r="749" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="749" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D749" s="3"/>
       <c r="E749" s="6"/>
     </row>
-    <row r="750" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="750" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D750" s="3"/>
       <c r="E750" s="6"/>
     </row>
-    <row r="751" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="751" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D751" s="3"/>
       <c r="E751" s="6"/>
     </row>
-    <row r="752" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="752" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D752" s="3"/>
       <c r="E752" s="6"/>
     </row>
-    <row r="753" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="753" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D753" s="3"/>
       <c r="E753" s="6"/>
     </row>
-    <row r="754" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="754" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D754" s="3"/>
       <c r="E754" s="6"/>
     </row>
-    <row r="755" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="755" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D755" s="3"/>
       <c r="E755" s="6"/>
     </row>
-    <row r="756" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="756" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D756" s="3"/>
       <c r="E756" s="6"/>
     </row>
-    <row r="757" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="757" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D757" s="3"/>
       <c r="E757" s="6"/>
     </row>
-    <row r="758" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="758" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D758" s="3"/>
       <c r="E758" s="6"/>
     </row>
-    <row r="759" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="759" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D759" s="3"/>
       <c r="E759" s="6"/>
     </row>
-    <row r="760" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="760" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D760" s="3"/>
       <c r="E760" s="6"/>
     </row>
-    <row r="761" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="761" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D761" s="3"/>
       <c r="E761" s="6"/>
     </row>
-    <row r="762" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="762" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D762" s="3"/>
       <c r="E762" s="6"/>
     </row>
-    <row r="763" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="763" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D763" s="3"/>
       <c r="E763" s="6"/>
     </row>
-    <row r="764" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="764" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D764" s="3"/>
       <c r="E764" s="6"/>
     </row>
-    <row r="765" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="765" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D765" s="3"/>
       <c r="E765" s="6"/>
     </row>
-    <row r="766" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="766" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D766" s="3"/>
       <c r="E766" s="6"/>
     </row>
-    <row r="767" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="767" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D767" s="3"/>
       <c r="E767" s="6"/>
     </row>
-    <row r="768" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="768" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D768" s="3"/>
       <c r="E768" s="6"/>
     </row>
-    <row r="769" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="769" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D769" s="3"/>
       <c r="E769" s="6"/>
     </row>
-    <row r="770" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="770" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D770" s="3"/>
       <c r="E770" s="6"/>
     </row>
-    <row r="771" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="771" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D771" s="3"/>
       <c r="E771" s="6"/>
     </row>
-    <row r="772" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="772" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D772" s="3"/>
       <c r="E772" s="6"/>
     </row>
-    <row r="773" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="773" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D773" s="3"/>
       <c r="E773" s="6"/>
     </row>
-    <row r="774" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="774" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D774" s="3"/>
       <c r="E774" s="6"/>
     </row>
-    <row r="775" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="775" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D775" s="3"/>
       <c r="E775" s="6"/>
     </row>
-    <row r="776" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="776" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D776" s="3"/>
       <c r="E776" s="6"/>
     </row>
-    <row r="777" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="777" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D777" s="3"/>
       <c r="E777" s="6"/>
     </row>
-    <row r="778" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="778" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D778" s="3"/>
       <c r="E778" s="6"/>
     </row>
-    <row r="779" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="779" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D779" s="3"/>
       <c r="E779" s="6"/>
     </row>
-    <row r="780" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="780" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D780" s="3"/>
       <c r="E780" s="6"/>
     </row>
-    <row r="781" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="781" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D781" s="3"/>
       <c r="E781" s="6"/>
     </row>
-    <row r="782" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="782" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D782" s="3"/>
       <c r="E782" s="6"/>
     </row>
-    <row r="783" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="783" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D783" s="3"/>
       <c r="E783" s="6"/>
     </row>
-    <row r="784" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="784" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D784" s="3"/>
       <c r="E784" s="6"/>
     </row>
-    <row r="785" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="785" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D785" s="3"/>
       <c r="E785" s="6"/>
     </row>
-    <row r="786" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="786" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D786" s="3"/>
       <c r="E786" s="6"/>
     </row>
-    <row r="787" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="787" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D787" s="3"/>
       <c r="E787" s="6"/>
     </row>
-    <row r="788" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="788" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D788" s="3"/>
       <c r="E788" s="6"/>
     </row>
-    <row r="789" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="789" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D789" s="3"/>
       <c r="E789" s="6"/>
     </row>
-    <row r="790" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="790" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D790" s="3"/>
       <c r="E790" s="6"/>
     </row>
-    <row r="791" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="791" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D791" s="3"/>
       <c r="E791" s="6"/>
     </row>
-    <row r="792" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="792" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D792" s="3"/>
       <c r="E792" s="6"/>
     </row>
-    <row r="793" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="793" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D793" s="3"/>
       <c r="E793" s="6"/>
     </row>
-    <row r="794" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="794" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D794" s="3"/>
       <c r="E794" s="6"/>
     </row>
-    <row r="795" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="795" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D795" s="3"/>
       <c r="E795" s="6"/>
     </row>
-    <row r="796" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="796" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D796" s="3"/>
       <c r="E796" s="6"/>
     </row>
-    <row r="797" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="797" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D797" s="3"/>
       <c r="E797" s="6"/>
     </row>
-    <row r="798" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="798" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D798" s="3"/>
       <c r="E798" s="6"/>
     </row>
-    <row r="799" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="799" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D799" s="3"/>
       <c r="E799" s="6"/>
     </row>
-    <row r="800" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="800" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D800" s="3"/>
       <c r="E800" s="6"/>
     </row>
-    <row r="801" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="801" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D801" s="3"/>
       <c r="E801" s="6"/>
     </row>
-    <row r="802" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="802" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D802" s="3"/>
       <c r="E802" s="6"/>
     </row>
-    <row r="803" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="803" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D803" s="3"/>
       <c r="E803" s="6"/>
     </row>
-    <row r="804" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="804" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D804" s="3"/>
       <c r="E804" s="6"/>
     </row>
-    <row r="805" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="805" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D805" s="3"/>
       <c r="E805" s="6"/>
     </row>
-    <row r="806" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="806" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D806" s="3"/>
       <c r="E806" s="6"/>
     </row>
-    <row r="807" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="807" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D807" s="3"/>
       <c r="E807" s="6"/>
     </row>
-    <row r="808" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="808" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D808" s="3"/>
       <c r="E808" s="6"/>
     </row>
-    <row r="809" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="809" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D809" s="3"/>
       <c r="E809" s="6"/>
     </row>
-    <row r="810" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="810" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D810" s="3"/>
       <c r="E810" s="6"/>
     </row>
-    <row r="811" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="811" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D811" s="3"/>
       <c r="E811" s="6"/>
     </row>
-    <row r="812" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="812" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D812" s="3"/>
       <c r="E812" s="6"/>
     </row>
-    <row r="813" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="813" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D813" s="3"/>
       <c r="E813" s="6"/>
     </row>
-    <row r="814" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="814" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D814" s="3"/>
       <c r="E814" s="6"/>
     </row>
-    <row r="815" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="815" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D815" s="3"/>
       <c r="E815" s="6"/>
     </row>
-    <row r="816" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="816" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D816" s="3"/>
       <c r="E816" s="6"/>
     </row>
-    <row r="817" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="817" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D817" s="3"/>
       <c r="E817" s="6"/>
     </row>
-    <row r="818" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="818" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D818" s="3"/>
       <c r="E818" s="6"/>
     </row>
-    <row r="819" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="819" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D819" s="3"/>
       <c r="E819" s="6"/>
     </row>
-    <row r="820" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="820" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D820" s="3"/>
       <c r="E820" s="6"/>
     </row>
-    <row r="821" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="821" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D821" s="3"/>
       <c r="E821" s="6"/>
     </row>
-    <row r="822" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="822" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D822" s="3"/>
       <c r="E822" s="6"/>
     </row>
-    <row r="823" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="823" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D823" s="3"/>
       <c r="E823" s="6"/>
     </row>
-    <row r="824" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="824" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D824" s="3"/>
       <c r="E824" s="6"/>
     </row>
-    <row r="825" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="825" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D825" s="3"/>
       <c r="E825" s="6"/>
     </row>
-    <row r="826" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="826" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D826" s="3"/>
       <c r="E826" s="6"/>
     </row>
-    <row r="827" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="827" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D827" s="3"/>
       <c r="E827" s="6"/>
     </row>
-    <row r="828" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="828" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D828" s="3"/>
       <c r="E828" s="6"/>
     </row>
-    <row r="829" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="829" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D829" s="3"/>
       <c r="E829" s="6"/>
     </row>
-    <row r="830" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="830" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D830" s="3"/>
       <c r="E830" s="6"/>
     </row>
-    <row r="831" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="831" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D831" s="3"/>
       <c r="E831" s="6"/>
     </row>
-    <row r="832" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="832" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D832" s="3"/>
       <c r="E832" s="6"/>
     </row>
-    <row r="833" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="833" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D833" s="3"/>
       <c r="E833" s="6"/>
     </row>
-    <row r="834" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="834" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D834" s="3"/>
       <c r="E834" s="6"/>
     </row>
-    <row r="835" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="835" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D835" s="3"/>
       <c r="E835" s="6"/>
     </row>
-    <row r="836" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="836" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D836" s="3"/>
       <c r="E836" s="6"/>
     </row>
-    <row r="837" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="837" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D837" s="3"/>
       <c r="E837" s="6"/>
     </row>
-    <row r="838" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="838" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D838" s="3"/>
       <c r="E838" s="6"/>
     </row>
-    <row r="839" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="839" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D839" s="3"/>
       <c r="E839" s="6"/>
     </row>
-    <row r="840" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="840" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D840" s="3"/>
       <c r="E840" s="6"/>
     </row>
-    <row r="841" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="841" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D841" s="3"/>
       <c r="E841" s="6"/>
     </row>
-    <row r="842" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="842" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D842" s="3"/>
       <c r="E842" s="6"/>
     </row>
-    <row r="843" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="843" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D843" s="3"/>
       <c r="E843" s="6"/>
     </row>
-    <row r="844" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="844" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D844" s="3"/>
       <c r="E844" s="6"/>
     </row>
-    <row r="845" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="845" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D845" s="3"/>
       <c r="E845" s="6"/>
     </row>
-    <row r="846" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="846" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D846" s="3"/>
       <c r="E846" s="6"/>
     </row>
-    <row r="847" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="847" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D847" s="3"/>
       <c r="E847" s="6"/>
     </row>
-    <row r="848" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="848" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D848" s="3"/>
       <c r="E848" s="6"/>
     </row>
-    <row r="849" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="849" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D849" s="3"/>
       <c r="E849" s="6"/>
     </row>
-    <row r="850" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="850" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D850" s="3"/>
       <c r="E850" s="6"/>
     </row>
-    <row r="851" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="851" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D851" s="3"/>
       <c r="E851" s="6"/>
     </row>
-    <row r="852" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="852" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D852" s="3"/>
       <c r="E852" s="6"/>
     </row>
-    <row r="853" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="853" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D853" s="3"/>
       <c r="E853" s="6"/>
     </row>
-    <row r="854" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="854" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D854" s="3"/>
       <c r="E854" s="6"/>
     </row>
-    <row r="855" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="855" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D855" s="3"/>
       <c r="E855" s="6"/>
     </row>
-    <row r="856" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="856" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D856" s="3"/>
       <c r="E856" s="6"/>
     </row>
-    <row r="857" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="857" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D857" s="3"/>
       <c r="E857" s="6"/>
     </row>
-    <row r="858" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="858" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D858" s="3"/>
       <c r="E858" s="6"/>
     </row>
-    <row r="859" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="859" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D859" s="3"/>
       <c r="E859" s="6"/>
     </row>
-    <row r="860" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="860" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D860" s="3"/>
       <c r="E860" s="6"/>
     </row>
-    <row r="861" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="861" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D861" s="3"/>
       <c r="E861" s="6"/>
     </row>
-    <row r="862" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="862" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D862" s="3"/>
       <c r="E862" s="6"/>
     </row>
-    <row r="863" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="863" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D863" s="3"/>
       <c r="E863" s="6"/>
     </row>
-    <row r="864" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="864" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D864" s="3"/>
       <c r="E864" s="6"/>
     </row>
-    <row r="865" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="865" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D865" s="3"/>
       <c r="E865" s="6"/>
     </row>
-    <row r="866" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="866" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D866" s="3"/>
       <c r="E866" s="6"/>
     </row>
-    <row r="867" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="867" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D867" s="3"/>
       <c r="E867" s="6"/>
     </row>
-    <row r="868" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="868" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D868" s="3"/>
       <c r="E868" s="6"/>
     </row>
-    <row r="869" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="869" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D869" s="3"/>
       <c r="E869" s="6"/>
     </row>
-    <row r="870" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="870" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D870" s="3"/>
       <c r="E870" s="6"/>
     </row>
-    <row r="871" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="871" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D871" s="3"/>
       <c r="E871" s="6"/>
     </row>
-    <row r="872" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="872" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D872" s="3"/>
       <c r="E872" s="6"/>
     </row>
-    <row r="873" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="873" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D873" s="3"/>
       <c r="E873" s="6"/>
     </row>
-    <row r="874" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="874" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D874" s="3"/>
       <c r="E874" s="6"/>
     </row>
-    <row r="875" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="875" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D875" s="3"/>
       <c r="E875" s="6"/>
     </row>
-    <row r="876" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="876" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D876" s="3"/>
       <c r="E876" s="6"/>
     </row>
-    <row r="877" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="877" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D877" s="3"/>
       <c r="E877" s="6"/>
     </row>
-    <row r="878" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="878" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D878" s="3"/>
       <c r="E878" s="6"/>
     </row>
-    <row r="879" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="879" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D879" s="3"/>
       <c r="E879" s="6"/>
     </row>
-    <row r="880" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="880" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D880" s="3"/>
       <c r="E880" s="6"/>
     </row>
-    <row r="881" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="881" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D881" s="3"/>
       <c r="E881" s="6"/>
     </row>
-    <row r="882" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="882" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D882" s="3"/>
       <c r="E882" s="6"/>
     </row>
-    <row r="883" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="883" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D883" s="3"/>
       <c r="E883" s="6"/>
     </row>
-    <row r="884" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="884" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D884" s="3"/>
       <c r="E884" s="6"/>
     </row>
-    <row r="885" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="885" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D885" s="3"/>
       <c r="E885" s="6"/>
     </row>
-    <row r="886" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="886" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D886" s="3"/>
       <c r="E886" s="6"/>
     </row>
-    <row r="887" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="887" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D887" s="3"/>
       <c r="E887" s="6"/>
     </row>
-    <row r="888" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="888" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D888" s="3"/>
       <c r="E888" s="6"/>
     </row>
-    <row r="889" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="889" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D889" s="3"/>
       <c r="E889" s="6"/>
     </row>
-    <row r="890" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="890" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D890" s="3"/>
       <c r="E890" s="6"/>
     </row>
-    <row r="891" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="891" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D891" s="3"/>
       <c r="E891" s="6"/>
     </row>
-    <row r="892" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="892" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D892" s="3"/>
       <c r="E892" s="6"/>
     </row>
-    <row r="893" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="893" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D893" s="3"/>
       <c r="E893" s="6"/>
     </row>
-    <row r="894" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="894" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D894" s="3"/>
       <c r="E894" s="6"/>
     </row>
-    <row r="895" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="895" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D895" s="3"/>
       <c r="E895" s="6"/>
     </row>
-    <row r="896" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="896" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D896" s="3"/>
       <c r="E896" s="6"/>
     </row>
-    <row r="897" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="897" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D897" s="3"/>
       <c r="E897" s="6"/>
     </row>
-    <row r="898" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="898" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D898" s="3"/>
       <c r="E898" s="6"/>
     </row>
-    <row r="899" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="899" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D899" s="3"/>
       <c r="E899" s="6"/>
     </row>
-    <row r="900" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="900" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D900" s="3"/>
       <c r="E900" s="6"/>
     </row>
-    <row r="901" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="901" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D901" s="3"/>
       <c r="E901" s="6"/>
     </row>
-    <row r="902" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="902" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D902" s="3"/>
       <c r="E902" s="6"/>
     </row>
-    <row r="903" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="903" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D903" s="3"/>
       <c r="E903" s="6"/>
     </row>
-    <row r="904" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="904" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D904" s="3"/>
       <c r="E904" s="6"/>
     </row>
-    <row r="905" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="905" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D905" s="3"/>
       <c r="E905" s="6"/>
     </row>
-    <row r="906" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="906" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D906" s="3"/>
       <c r="E906" s="6"/>
     </row>
-    <row r="907" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="907" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D907" s="3"/>
       <c r="E907" s="6"/>
     </row>
-    <row r="908" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="908" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D908" s="3"/>
       <c r="E908" s="6"/>
     </row>
-    <row r="909" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="909" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D909" s="3"/>
       <c r="E909" s="6"/>
     </row>
-    <row r="910" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="910" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D910" s="3"/>
       <c r="E910" s="6"/>
     </row>
-    <row r="911" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="911" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D911" s="3"/>
       <c r="E911" s="6"/>
     </row>
-    <row r="912" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="912" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D912" s="3"/>
       <c r="E912" s="6"/>
     </row>
-    <row r="913" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="913" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D913" s="3"/>
       <c r="E913" s="6"/>
     </row>
-    <row r="914" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="914" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D914" s="3"/>
       <c r="E914" s="6"/>
     </row>
-    <row r="915" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="915" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D915" s="3"/>
       <c r="E915" s="6"/>
     </row>
-    <row r="916" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="916" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D916" s="3"/>
       <c r="E916" s="6"/>
     </row>
-    <row r="917" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="917" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D917" s="3"/>
       <c r="E917" s="6"/>
     </row>
-    <row r="918" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="918" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D918" s="3"/>
       <c r="E918" s="6"/>
     </row>
-    <row r="919" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="919" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D919" s="3"/>
       <c r="E919" s="6"/>
     </row>
-    <row r="920" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="920" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D920" s="3"/>
       <c r="E920" s="6"/>
     </row>
-    <row r="921" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="921" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D921" s="3"/>
       <c r="E921" s="6"/>
     </row>
-    <row r="922" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="922" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D922" s="3"/>
       <c r="E922" s="6"/>
     </row>
-    <row r="923" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="923" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D923" s="3"/>
       <c r="E923" s="6"/>
     </row>
-    <row r="924" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="924" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D924" s="3"/>
       <c r="E924" s="6"/>
     </row>
-    <row r="925" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="925" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D925" s="3"/>
       <c r="E925" s="6"/>
     </row>
-    <row r="926" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="926" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D926" s="3"/>
       <c r="E926" s="6"/>
     </row>
-    <row r="927" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="927" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D927" s="3"/>
       <c r="E927" s="6"/>
     </row>
-    <row r="928" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="928" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D928" s="3"/>
       <c r="E928" s="6"/>
     </row>
-    <row r="929" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="929" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D929" s="3"/>
       <c r="E929" s="6"/>
     </row>
-    <row r="930" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="930" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D930" s="3"/>
       <c r="E930" s="6"/>
     </row>
-    <row r="931" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="931" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D931" s="3"/>
       <c r="E931" s="6"/>
     </row>
-    <row r="932" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="932" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D932" s="3"/>
       <c r="E932" s="6"/>
     </row>
-    <row r="933" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="933" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D933" s="3"/>
       <c r="E933" s="6"/>
     </row>
-    <row r="934" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="934" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D934" s="3"/>
       <c r="E934" s="6"/>
     </row>
-    <row r="935" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="935" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D935" s="3"/>
       <c r="E935" s="6"/>
     </row>
-    <row r="936" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="936" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D936" s="3"/>
       <c r="E936" s="6"/>
     </row>
-    <row r="937" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="937" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D937" s="3"/>
       <c r="E937" s="6"/>
     </row>
-    <row r="938" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="938" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D938" s="3"/>
       <c r="E938" s="6"/>
     </row>
-    <row r="939" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="939" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D939" s="3"/>
       <c r="E939" s="6"/>
     </row>
-    <row r="940" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="940" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D940" s="3"/>
       <c r="E940" s="6"/>
     </row>
-    <row r="941" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="941" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D941" s="3"/>
       <c r="E941" s="6"/>
     </row>
-    <row r="942" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="942" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D942" s="3"/>
       <c r="E942" s="6"/>
     </row>
-    <row r="943" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="943" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D943" s="3"/>
       <c r="E943" s="6"/>
     </row>
-    <row r="944" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="944" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D944" s="3"/>
       <c r="E944" s="6"/>
     </row>
-    <row r="945" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="945" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D945" s="3"/>
       <c r="E945" s="6"/>
     </row>
-    <row r="946" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="946" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D946" s="3"/>
       <c r="E946" s="6"/>
     </row>
-    <row r="947" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="947" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D947" s="3"/>
       <c r="E947" s="6"/>
     </row>
-    <row r="948" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="948" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D948" s="3"/>
       <c r="E948" s="6"/>
     </row>
-    <row r="949" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="949" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D949" s="3"/>
       <c r="E949" s="6"/>
     </row>
-    <row r="950" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="950" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D950" s="3"/>
       <c r="E950" s="6"/>
     </row>
-    <row r="951" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="951" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D951" s="3"/>
       <c r="E951" s="6"/>
     </row>
-    <row r="952" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="952" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D952" s="3"/>
       <c r="E952" s="6"/>
     </row>
-    <row r="953" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="953" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D953" s="3"/>
       <c r="E953" s="6"/>
     </row>
-    <row r="954" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="954" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D954" s="3"/>
       <c r="E954" s="6"/>
     </row>
-    <row r="955" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="955" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D955" s="3"/>
       <c r="E955" s="6"/>
     </row>
-    <row r="956" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="956" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D956" s="3"/>
       <c r="E956" s="6"/>
     </row>
-    <row r="957" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="957" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D957" s="3"/>
       <c r="E957" s="6"/>
     </row>
-    <row r="958" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="958" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D958" s="3"/>
       <c r="E958" s="6"/>
     </row>
-    <row r="959" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="959" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D959" s="3"/>
       <c r="E959" s="6"/>
     </row>
-    <row r="960" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="960" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D960" s="3"/>
       <c r="E960" s="6"/>
     </row>
-    <row r="961" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="961" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D961" s="3"/>
       <c r="E961" s="6"/>
     </row>
-    <row r="962" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="962" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D962" s="3"/>
       <c r="E962" s="6"/>
     </row>
-    <row r="963" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="963" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D963" s="3"/>
       <c r="E963" s="6"/>
     </row>
-    <row r="964" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="964" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D964" s="3"/>
       <c r="E964" s="6"/>
     </row>
-    <row r="965" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="965" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D965" s="3"/>
       <c r="E965" s="6"/>
     </row>
-    <row r="966" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="966" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D966" s="3"/>
       <c r="E966" s="6"/>
     </row>
-    <row r="967" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="967" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D967" s="3"/>
       <c r="E967" s="6"/>
     </row>
-    <row r="968" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="968" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D968" s="3"/>
       <c r="E968" s="6"/>
     </row>
-    <row r="969" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="969" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D969" s="3"/>
       <c r="E969" s="6"/>
     </row>
-    <row r="970" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="970" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D970" s="3"/>
       <c r="E970" s="6"/>
     </row>
-    <row r="971" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="971" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D971" s="3"/>
       <c r="E971" s="6"/>
     </row>
-    <row r="972" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="972" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D972" s="3"/>
       <c r="E972" s="6"/>
     </row>
-    <row r="973" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="973" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D973" s="3"/>
       <c r="E973" s="6"/>
     </row>
-    <row r="974" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="974" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D974" s="3"/>
       <c r="E974" s="6"/>
     </row>
-    <row r="975" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="975" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D975" s="3"/>
       <c r="E975" s="6"/>
     </row>
-    <row r="976" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="976" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D976" s="3"/>
       <c r="E976" s="6"/>
     </row>
-    <row r="977" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="977" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D977" s="3"/>
       <c r="E977" s="6"/>
     </row>
-    <row r="978" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="978" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D978" s="3"/>
       <c r="E978" s="6"/>
     </row>
-    <row r="979" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="979" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D979" s="3"/>
       <c r="E979" s="6"/>
     </row>
-    <row r="980" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="980" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D980" s="3"/>
       <c r="E980" s="6"/>
     </row>
-    <row r="981" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="981" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D981" s="3"/>
       <c r="E981" s="6"/>
     </row>
-    <row r="982" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="982" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D982" s="3"/>
       <c r="E982" s="6"/>
     </row>
-    <row r="983" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="983" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D983" s="3"/>
       <c r="E983" s="6"/>
     </row>
-    <row r="984" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="984" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D984" s="3"/>
       <c r="E984" s="6"/>
     </row>
-    <row r="985" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="985" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D985" s="3"/>
       <c r="E985" s="6"/>
     </row>
-    <row r="986" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="986" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D986" s="3"/>
       <c r="E986" s="6"/>
     </row>
-    <row r="987" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="987" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D987" s="3"/>
       <c r="E987" s="6"/>
     </row>
-    <row r="988" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="988" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D988" s="3"/>
       <c r="E988" s="6"/>
     </row>
-    <row r="989" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="989" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D989" s="3"/>
       <c r="E989" s="6"/>
     </row>
-    <row r="990" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="990" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D990" s="3"/>
       <c r="E990" s="6"/>
     </row>
-    <row r="991" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="991" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D991" s="3"/>
       <c r="E991" s="6"/>
     </row>
-    <row r="992" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="992" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D992" s="3"/>
       <c r="E992" s="6"/>
     </row>
-    <row r="993" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="993" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D993" s="3"/>
       <c r="E993" s="6"/>
     </row>
-    <row r="994" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="994" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D994" s="3"/>
       <c r="E994" s="6"/>
     </row>
-    <row r="995" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="995" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D995" s="3"/>
       <c r="E995" s="6"/>
     </row>
-    <row r="996" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="996" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D996" s="3"/>
       <c r="E996" s="6"/>
     </row>
-    <row r="997" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="997" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D997" s="3"/>
       <c r="E997" s="6"/>
     </row>
-    <row r="998" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="998" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D998" s="3"/>
       <c r="E998" s="6"/>
     </row>
-    <row r="999" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="999" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D999" s="3"/>
       <c r="E999" s="6"/>
     </row>
-    <row r="1000" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="1000" spans="4:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="D1000" s="3"/>
       <c r="E1000" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1000" xr:uid="{308DA3CD-E7DC-CB43-961D-481618B260FC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Manfred Finckh"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1000">
       <sortCondition ref="F1:F1000"/>
     </sortState>
